--- a/dataanalysis/data/predictions/1000/09240947_0954.xlsx
+++ b/dataanalysis/data/predictions/1000/09240947_0954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-24</t>
   </si>
   <si>
@@ -374,12 +377,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -737,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,19 +843,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300111</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>14.71</v>
@@ -876,7 +876,7 @@
         <v>160670.03</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -918,10 +918,25 @@
         <v>1.32</v>
       </c>
       <c r="X2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y2">
+        <v>5.02</v>
+      </c>
+      <c r="Z2">
+        <v>10.28</v>
+      </c>
+      <c r="AA2">
+        <v>25.52</v>
       </c>
       <c r="AC2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -929,22 +944,25 @@
       <c r="AG2">
         <v>2.077536821365356</v>
       </c>
-      <c r="AH2" t="s">
-        <v>120</v>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300115</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>5.65</v>
@@ -962,7 +980,7 @@
         <v>385952.46</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1004,10 +1022,25 @@
         <v>-0.05</v>
       </c>
       <c r="X3" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y3">
+        <v>-0.86</v>
+      </c>
+      <c r="Z3">
+        <v>43.51</v>
+      </c>
+      <c r="AA3">
+        <v>12.87</v>
       </c>
       <c r="AC3" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1015,22 +1048,25 @@
       <c r="AG3">
         <v>44.50283432006836</v>
       </c>
-      <c r="AH3" t="s">
-        <v>121</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300139</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.6899999999999999</v>
@@ -1048,7 +1084,7 @@
         <v>58182.81</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -1090,10 +1126,25 @@
         <v>-0.27</v>
       </c>
       <c r="X4" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y4">
+        <v>-3.99</v>
+      </c>
+      <c r="Z4">
+        <v>27.3</v>
+      </c>
+      <c r="AA4">
+        <v>-0.73</v>
       </c>
       <c r="AC4" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1101,22 +1152,25 @@
       <c r="AG4">
         <v>1.799071907997131</v>
       </c>
-      <c r="AH4" t="s">
-        <v>121</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300207</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-2.59</v>
@@ -1134,7 +1188,7 @@
         <v>118722.27</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>14</v>
@@ -1176,10 +1230,25 @@
         <v>-0.14</v>
       </c>
       <c r="X5" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y5">
+        <v>1.21</v>
+      </c>
+      <c r="Z5">
+        <v>34.48</v>
+      </c>
+      <c r="AA5">
+        <v>10.44</v>
       </c>
       <c r="AC5" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1187,22 +1256,25 @@
       <c r="AG5">
         <v>-0.8332011699676514</v>
       </c>
-      <c r="AH5" t="s">
-        <v>121</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300236</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6.81</v>
@@ -1220,7 +1292,7 @@
         <v>61653.38</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1262,10 +1334,25 @@
         <v>0.17</v>
       </c>
       <c r="X6" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y6">
+        <v>3.24</v>
+      </c>
+      <c r="Z6">
+        <v>67.13</v>
+      </c>
+      <c r="AA6">
+        <v>8.029999999999999</v>
       </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1273,22 +1360,25 @@
       <c r="AG6">
         <v>7.054907321929932</v>
       </c>
-      <c r="AH6" t="s">
-        <v>121</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300250</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6.58</v>
@@ -1306,7 +1396,7 @@
         <v>108455.27</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1348,10 +1438,25 @@
         <v>0.6</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y7">
+        <v>-8.41</v>
+      </c>
+      <c r="Z7">
+        <v>26.3</v>
+      </c>
+      <c r="AA7">
+        <v>-6.14</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1359,22 +1464,25 @@
       <c r="AG7">
         <v>6.843857765197754</v>
       </c>
-      <c r="AH7" t="s">
-        <v>121</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300260</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.28</v>
@@ -1392,7 +1500,7 @@
         <v>69035.48</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1434,10 +1542,25 @@
         <v>-0.28</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y8">
+        <v>-2.87</v>
+      </c>
+      <c r="Z8">
+        <v>43.68</v>
+      </c>
+      <c r="AA8">
+        <v>-0.3</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1445,22 +1568,25 @@
       <c r="AG8">
         <v>2.855704069137573</v>
       </c>
-      <c r="AH8" t="s">
-        <v>121</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.81</v>
@@ -1478,7 +1604,7 @@
         <v>559264.46</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -1520,10 +1646,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y9">
+        <v>3.66</v>
+      </c>
+      <c r="Z9">
+        <v>163.25</v>
+      </c>
+      <c r="AA9">
+        <v>10.62</v>
       </c>
       <c r="AC9" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1531,22 +1672,25 @@
       <c r="AG9">
         <v>1.924603462219238</v>
       </c>
-      <c r="AH9" t="s">
-        <v>121</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300350</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.83</v>
@@ -1564,7 +1708,7 @@
         <v>29118.38</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1606,10 +1750,25 @@
         <v>-0.61</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y10">
+        <v>-5.59</v>
+      </c>
+      <c r="Z10">
+        <v>7.06</v>
+      </c>
+      <c r="AA10">
+        <v>-1.67</v>
       </c>
       <c r="AC10" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1617,22 +1776,25 @@
       <c r="AG10">
         <v>3.374776601791382</v>
       </c>
-      <c r="AH10" t="s">
-        <v>121</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300398</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1650,7 +1812,7 @@
         <v>73238.7</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1692,10 +1854,25 @@
         <v>0.09</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y11">
+        <v>1.31</v>
+      </c>
+      <c r="Z11">
+        <v>27.3</v>
+      </c>
+      <c r="AA11">
+        <v>6.93</v>
       </c>
       <c r="AC11" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1703,22 +1880,25 @@
       <c r="AG11">
         <v>3.316897630691528</v>
       </c>
-      <c r="AH11" t="s">
-        <v>121</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-3.13</v>
@@ -1736,7 +1916,7 @@
         <v>422025.96</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12">
         <v>19</v>
@@ -1778,10 +1958,25 @@
         <v>-0.22</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y12">
+        <v>-4.17</v>
+      </c>
+      <c r="Z12">
+        <v>69.72</v>
+      </c>
+      <c r="AA12">
+        <v>13.7</v>
       </c>
       <c r="AC12" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1789,22 +1984,25 @@
       <c r="AG12">
         <v>1.26616895198822</v>
       </c>
-      <c r="AH12" t="s">
-        <v>121</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300475</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>1.14</v>
@@ -1822,7 +2020,7 @@
         <v>137697.29</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>14</v>
@@ -1864,10 +2062,25 @@
         <v>0.14</v>
       </c>
       <c r="X13" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y13">
+        <v>-5.2</v>
+      </c>
+      <c r="Z13">
+        <v>83.12</v>
+      </c>
+      <c r="AA13">
+        <v>-1.4</v>
       </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1875,22 +2088,25 @@
       <c r="AG13">
         <v>0.6660392284393311</v>
       </c>
-      <c r="AH13" t="s">
-        <v>121</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300539</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.49</v>
@@ -1908,7 +2124,7 @@
         <v>35526.09</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>14</v>
@@ -1950,10 +2166,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X14" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y14">
+        <v>-2.26</v>
+      </c>
+      <c r="Z14">
+        <v>50</v>
+      </c>
+      <c r="AA14">
+        <v>0.28</v>
       </c>
       <c r="AC14" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1961,22 +2192,25 @@
       <c r="AG14">
         <v>0.5789609551429749</v>
       </c>
-      <c r="AH14" t="s">
-        <v>121</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300604</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>10.71</v>
@@ -1994,7 +2228,7 @@
         <v>578147.48</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15">
         <v>21</v>
@@ -2036,10 +2270,25 @@
         <v>-1.06</v>
       </c>
       <c r="X15" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y15">
+        <v>-1.8</v>
+      </c>
+      <c r="Z15">
+        <v>99.5</v>
+      </c>
+      <c r="AA15">
+        <v>11.96</v>
       </c>
       <c r="AC15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2047,22 +2296,25 @@
       <c r="AG15">
         <v>-1.781140565872192</v>
       </c>
-      <c r="AH15" t="s">
-        <v>121</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300680</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-0.8100000000000001</v>
@@ -2080,7 +2332,7 @@
         <v>27380.9</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -2122,10 +2374,25 @@
         <v>0.17</v>
       </c>
       <c r="X16" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y16">
+        <v>-3.31</v>
+      </c>
+      <c r="Z16">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>3.01</v>
       </c>
       <c r="AC16" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2133,22 +2400,25 @@
       <c r="AG16">
         <v>13.88064289093018</v>
       </c>
-      <c r="AH16" t="s">
-        <v>121</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300959</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.99</v>
@@ -2166,7 +2436,7 @@
         <v>21592.76</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2208,10 +2478,25 @@
         <v>0.11</v>
       </c>
       <c r="X17" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y17">
+        <v>8.51</v>
+      </c>
+      <c r="Z17">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>12.07</v>
       </c>
       <c r="AC17" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2219,22 +2504,25 @@
       <c r="AG17">
         <v>5.244977474212646</v>
       </c>
-      <c r="AH17" t="s">
-        <v>121</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300969</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.78</v>
@@ -2252,7 +2540,7 @@
         <v>19747.95</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -2294,10 +2582,25 @@
         <v>-0.16</v>
       </c>
       <c r="X18" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y18">
+        <v>0.99</v>
+      </c>
+      <c r="Z18">
+        <v>145</v>
+      </c>
+      <c r="AA18">
+        <v>7.3</v>
       </c>
       <c r="AC18" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2305,22 +2608,25 @@
       <c r="AG18">
         <v>2.185101747512817</v>
       </c>
-      <c r="AH18" t="s">
-        <v>121</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>301008</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-8.41</v>
@@ -2338,7 +2644,7 @@
         <v>41303.69</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -2380,10 +2686,25 @@
         <v>0.11</v>
       </c>
       <c r="X19" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y19">
+        <v>-7.08</v>
+      </c>
+      <c r="Z19">
+        <v>49.34</v>
+      </c>
+      <c r="AA19">
+        <v>2.68</v>
       </c>
       <c r="AC19" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2391,22 +2712,25 @@
       <c r="AG19">
         <v>1.032615780830383</v>
       </c>
-      <c r="AH19" t="s">
-        <v>121</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>301013</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-8.91</v>
@@ -2424,7 +2748,7 @@
         <v>52758.28</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2466,10 +2790,25 @@
         <v>-0.38</v>
       </c>
       <c r="X20" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y20">
+        <v>-5.59</v>
+      </c>
+      <c r="Z20">
+        <v>28.78</v>
+      </c>
+      <c r="AA20">
+        <v>6.67</v>
       </c>
       <c r="AC20" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2477,22 +2816,25 @@
       <c r="AG20">
         <v>0.9472331404685974</v>
       </c>
-      <c r="AH20" t="s">
-        <v>121</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>301052</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.6</v>
@@ -2510,7 +2852,7 @@
         <v>51380.75</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2551,8 +2893,23 @@
       <c r="W21">
         <v>0.08</v>
       </c>
+      <c r="Y21">
+        <v>-1.66</v>
+      </c>
+      <c r="Z21">
+        <v>94.65000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>1.64</v>
+      </c>
       <c r="AC21" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2560,22 +2917,25 @@
       <c r="AG21">
         <v>5.293864250183105</v>
       </c>
-      <c r="AH21" t="s">
-        <v>121</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>301307</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0.77</v>
@@ -2593,7 +2953,7 @@
         <v>41529.16</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2635,10 +2995,25 @@
         <v>0.41</v>
       </c>
       <c r="X22" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y22">
+        <v>-7.69</v>
+      </c>
+      <c r="Z22">
+        <v>39.33</v>
+      </c>
+      <c r="AA22">
+        <v>-2.7</v>
       </c>
       <c r="AC22" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2646,22 +3021,25 @@
       <c r="AG22">
         <v>11.55389881134033</v>
       </c>
-      <c r="AH22" t="s">
-        <v>121</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301308</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7.55</v>
@@ -2679,7 +3057,7 @@
         <v>162138.64</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -2721,10 +3099,25 @@
         <v>0.24</v>
       </c>
       <c r="X23" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y23">
+        <v>-4.61</v>
+      </c>
+      <c r="Z23">
+        <v>146.88</v>
+      </c>
+      <c r="AA23">
+        <v>-5.36</v>
       </c>
       <c r="AC23" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2732,22 +3125,25 @@
       <c r="AG23">
         <v>0.2001239508390427</v>
       </c>
-      <c r="AH23" t="s">
-        <v>121</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301319</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3.71</v>
@@ -2765,7 +3161,7 @@
         <v>28329.52</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2807,10 +3203,25 @@
         <v>0.71</v>
       </c>
       <c r="X24" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y24">
+        <v>1.1</v>
+      </c>
+      <c r="Z24">
+        <v>48.48</v>
+      </c>
+      <c r="AA24">
+        <v>4.57</v>
       </c>
       <c r="AC24" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2818,22 +3229,25 @@
       <c r="AG24">
         <v>1.998428821563721</v>
       </c>
-      <c r="AH24" t="s">
-        <v>121</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301421</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-7.41</v>
@@ -2851,7 +3265,7 @@
         <v>115899.78</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2893,10 +3307,25 @@
         <v>-1.25</v>
       </c>
       <c r="X25" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y25">
+        <v>-2.15</v>
+      </c>
+      <c r="Z25">
+        <v>134.55</v>
+      </c>
+      <c r="AA25">
+        <v>12.13</v>
       </c>
       <c r="AC25" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2904,22 +3333,25 @@
       <c r="AG25">
         <v>2.270581960678101</v>
       </c>
-      <c r="AH25" t="s">
-        <v>121</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301489</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.37</v>
@@ -2937,7 +3369,7 @@
         <v>26244.15</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26">
         <v>12</v>
@@ -2979,10 +3411,25 @@
         <v>0.1</v>
       </c>
       <c r="X26" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y26">
+        <v>-0.14</v>
+      </c>
+      <c r="Z26">
+        <v>291.91</v>
+      </c>
+      <c r="AA26">
+        <v>11.41</v>
       </c>
       <c r="AC26" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2990,22 +3437,25 @@
       <c r="AG26">
         <v>8.141213417053223</v>
       </c>
-      <c r="AH26" t="s">
-        <v>121</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301550</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.19</v>
@@ -3023,7 +3473,7 @@
         <v>24341.68</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3065,10 +3515,25 @@
         <v>0.11</v>
       </c>
       <c r="X27" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y27">
+        <v>-2.43</v>
+      </c>
+      <c r="Z27">
+        <v>137.78</v>
+      </c>
+      <c r="AA27">
+        <v>3.85</v>
       </c>
       <c r="AC27" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3076,22 +3541,25 @@
       <c r="AG27">
         <v>1.654866099357605</v>
       </c>
-      <c r="AH27" t="s">
-        <v>121</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688028</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.06</v>
@@ -3109,7 +3577,7 @@
         <v>28578.29</v>
       </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -3151,10 +3619,25 @@
         <v>0.01</v>
       </c>
       <c r="X28" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y28">
+        <v>6.27</v>
+      </c>
+      <c r="Z28">
+        <v>54.9</v>
+      </c>
+      <c r="AA28">
+        <v>9.779999999999999</v>
       </c>
       <c r="AC28" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3162,22 +3645,25 @@
       <c r="AG28">
         <v>0.2257689833641052</v>
       </c>
-      <c r="AH28" t="s">
-        <v>121</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688041</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.61</v>
@@ -3195,7 +3681,7 @@
         <v>353542.4</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3237,10 +3723,25 @@
         <v>0.03</v>
       </c>
       <c r="X29" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y29">
+        <v>3.09</v>
+      </c>
+      <c r="Z29">
+        <v>277.98</v>
+      </c>
+      <c r="AA29">
+        <v>8.5</v>
       </c>
       <c r="AC29" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3248,22 +3749,25 @@
       <c r="AG29">
         <v>30.53503036499023</v>
       </c>
-      <c r="AH29" t="s">
-        <v>121</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688123</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>3.69</v>
@@ -3281,7 +3785,7 @@
         <v>96341.25</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3323,10 +3827,25 @@
         <v>0.01</v>
       </c>
       <c r="X30" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y30">
+        <v>2.84</v>
+      </c>
+      <c r="Z30">
+        <v>131.96</v>
+      </c>
+      <c r="AA30">
+        <v>6.05</v>
       </c>
       <c r="AC30" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3334,22 +3853,25 @@
       <c r="AG30">
         <v>-4.343203067779541</v>
       </c>
-      <c r="AH30" t="s">
-        <v>121</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688135</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-3.93</v>
@@ -3367,7 +3889,7 @@
         <v>30277.29</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K31">
         <v>17</v>
@@ -3409,10 +3931,25 @@
         <v>-0.23</v>
       </c>
       <c r="X31" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y31">
+        <v>-6.79</v>
+      </c>
+      <c r="Z31">
+        <v>37.68</v>
+      </c>
+      <c r="AA31">
+        <v>2.73</v>
       </c>
       <c r="AC31" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3420,22 +3957,25 @@
       <c r="AG31">
         <v>4.799301147460938</v>
       </c>
-      <c r="AH31" t="s">
-        <v>121</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688195</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-4.86</v>
@@ -3453,7 +3993,7 @@
         <v>40344.91</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K32">
         <v>28</v>
@@ -3495,10 +4035,25 @@
         <v>-0.16</v>
       </c>
       <c r="X32" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y32">
+        <v>-6.08</v>
+      </c>
+      <c r="Z32">
+        <v>135.19</v>
+      </c>
+      <c r="AA32">
+        <v>-1.32</v>
       </c>
       <c r="AC32" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3506,22 +4061,25 @@
       <c r="AG32">
         <v>-0.2556236386299133</v>
       </c>
-      <c r="AH32" t="s">
-        <v>121</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688228</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>6.27</v>
@@ -3539,7 +4097,7 @@
         <v>36147.69</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K33">
         <v>11</v>
@@ -3581,10 +4139,25 @@
         <v>0.3</v>
       </c>
       <c r="X33" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y33">
+        <v>-5.71</v>
+      </c>
+      <c r="Z33">
+        <v>193.93</v>
+      </c>
+      <c r="AA33">
+        <v>-2.77</v>
       </c>
       <c r="AC33" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3592,22 +4165,25 @@
       <c r="AG33">
         <v>14.91844749450684</v>
       </c>
-      <c r="AH33" t="s">
-        <v>121</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688330</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-8.57</v>
@@ -3625,7 +4201,7 @@
         <v>19272.96</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3667,10 +4243,25 @@
         <v>-0.2</v>
       </c>
       <c r="X34" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y34">
+        <v>2.21</v>
+      </c>
+      <c r="Z34">
+        <v>43.57</v>
+      </c>
+      <c r="AA34">
+        <v>5.5</v>
       </c>
       <c r="AC34" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3678,22 +4269,25 @@
       <c r="AG34">
         <v>0.5574583411216736</v>
       </c>
-      <c r="AH34" t="s">
-        <v>121</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688332</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0.25</v>
@@ -3711,7 +4305,7 @@
         <v>54519.79</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3753,10 +4347,25 @@
         <v>0.12</v>
       </c>
       <c r="X35" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y35">
+        <v>-4.82</v>
+      </c>
+      <c r="Z35">
+        <v>156.3</v>
+      </c>
+      <c r="AA35">
+        <v>3.25</v>
       </c>
       <c r="AC35" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3764,22 +4373,25 @@
       <c r="AG35">
         <v>0.8047374486923218</v>
       </c>
-      <c r="AH35" t="s">
-        <v>121</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688411</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.72</v>
@@ -3797,7 +4409,7 @@
         <v>69419.55</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36">
         <v>17</v>
@@ -3839,10 +4451,25 @@
         <v>0.05</v>
       </c>
       <c r="X36" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y36">
+        <v>4.1</v>
+      </c>
+      <c r="Z36">
+        <v>288.87</v>
+      </c>
+      <c r="AA36">
+        <v>10.13</v>
       </c>
       <c r="AC36" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3850,22 +4477,25 @@
       <c r="AG36">
         <v>3.15583872795105</v>
       </c>
-      <c r="AH36" t="s">
-        <v>121</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688521</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.18</v>
@@ -3883,7 +4513,7 @@
         <v>155685.82</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K37">
         <v>16</v>
@@ -3925,10 +4555,25 @@
         <v>-0.14</v>
       </c>
       <c r="X37" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y37">
+        <v>1.7</v>
+      </c>
+      <c r="Z37">
+        <v>212</v>
+      </c>
+      <c r="AA37">
+        <v>8.529999999999999</v>
       </c>
       <c r="AC37" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3936,22 +4581,25 @@
       <c r="AG37">
         <v>4.883749485015869</v>
       </c>
-      <c r="AH37" t="s">
-        <v>121</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688525</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.62</v>
@@ -3969,7 +4617,7 @@
         <v>110786.01</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4011,10 +4659,25 @@
         <v>0.29</v>
       </c>
       <c r="X38" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y38">
+        <v>-2.9</v>
+      </c>
+      <c r="Z38">
+        <v>92.13</v>
+      </c>
+      <c r="AA38">
+        <v>2.61</v>
       </c>
       <c r="AC38" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4022,22 +4685,25 @@
       <c r="AG38">
         <v>1.682783484458923</v>
       </c>
-      <c r="AH38" t="s">
-        <v>121</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688627</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-3.17</v>
@@ -4055,7 +4721,7 @@
         <v>38903.04</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -4097,10 +4763,25 @@
         <v>-0.03</v>
       </c>
       <c r="X39" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y39">
+        <v>-3.31</v>
+      </c>
+      <c r="Z39">
+        <v>198.86</v>
+      </c>
+      <c r="AA39">
+        <v>14.75</v>
       </c>
       <c r="AC39" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4108,22 +4789,25 @@
       <c r="AG39">
         <v>4.095651626586914</v>
       </c>
-      <c r="AH39" t="s">
-        <v>121</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688678</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.08</v>
@@ -4141,7 +4825,7 @@
         <v>14822.87</v>
       </c>
       <c r="J40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4183,10 +4867,25 @@
         <v>0.23</v>
       </c>
       <c r="X40" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y40">
+        <v>-2.62</v>
+      </c>
+      <c r="Z40">
+        <v>36.7</v>
+      </c>
+      <c r="AA40">
+        <v>-1.13</v>
       </c>
       <c r="AC40" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4194,22 +4893,25 @@
       <c r="AG40">
         <v>5.15752649307251</v>
       </c>
-      <c r="AH40" t="s">
-        <v>121</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688766</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.41</v>
@@ -4227,7 +4929,7 @@
         <v>35504.62</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4269,10 +4971,25 @@
         <v>0.18</v>
       </c>
       <c r="X41" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y41">
+        <v>-3.9</v>
+      </c>
+      <c r="Z41">
+        <v>107.95</v>
+      </c>
+      <c r="AA41">
+        <v>1.78</v>
       </c>
       <c r="AC41" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4280,22 +4997,25 @@
       <c r="AG41">
         <v>5.364452362060547</v>
       </c>
-      <c r="AH41" t="s">
-        <v>121</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688981</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.67</v>
@@ -4313,7 +5033,7 @@
         <v>649837</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -4355,10 +5075,25 @@
         <v>0.2</v>
       </c>
       <c r="X42" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y42">
+        <v>-0.64</v>
+      </c>
+      <c r="Z42">
+        <v>137.8</v>
+      </c>
+      <c r="AA42">
+        <v>3.43</v>
       </c>
       <c r="AC42" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4366,8 +5101,11 @@
       <c r="AG42">
         <v>1.333360552787781</v>
       </c>
-      <c r="AH42" t="s">
-        <v>121</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
